--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\windowsForm - schuman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB76F86-1770-445A-8591-CA1F6D0ECFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62C3E7-F533-4A60-AABC-18FD031B6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Site</t>
   </si>
@@ -93,9 +93,6 @@
     <t>RITM0483422</t>
   </si>
   <si>
-    <t>INC0274834</t>
-  </si>
-  <si>
     <t>PDF ready</t>
   </si>
   <si>
@@ -118,6 +115,36 @@
   </si>
   <si>
     <t>PI</t>
+  </si>
+  <si>
+    <t>RITM0483421</t>
+  </si>
+  <si>
+    <t>RITM0323421</t>
+  </si>
+  <si>
+    <t>Export Status</t>
+  </si>
+  <si>
+    <t>DOCX File</t>
+  </si>
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.docx</t>
+  </si>
+  <si>
+    <t>FAILED: Call was rejected by callee. (Exception from HRESULT: 0x80010001 (RPC_E_CALL_REJECTED))</t>
   </si>
 </sst>
 </file>
@@ -3931,15 +3958,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{199A9278-3730-4973-B609-12842F197324}" name="BRU" displayName="BRU" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{B88FF8E2-9E10-44CB-9A77-4DA4DC36F139}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{199A9278-3730-4973-B609-12842F197324}" name="BRU" displayName="BRU" ref="A1:I21" totalsRowShown="0">
+  <autoFilter ref="A1:I21" xr:uid="{B88FF8E2-9E10-44CB-9A77-4DA4DC36F139}"/>
+  <tableColumns count="9">
     <tableColumn id="3" xr3:uid="{C178B8AC-3540-430B-AFE2-F6D65F917B26}" name="Agent"/>
     <tableColumn id="1" xr3:uid="{84021FBE-D436-48FD-AB30-BC142BF95483}" name="Name"/>
     <tableColumn id="8" xr3:uid="{9FBAF676-FA27-4F83-8687-55747CF1065F}" name="PI"/>
     <tableColumn id="12" xr3:uid="{CA698EA9-8539-465B-8A8F-9D6E844423F4}" name="Ticket"/>
     <tableColumn id="16" xr3:uid="{D9E812EE-A799-4F24-839D-8FA856310440}" name="Estado de RITM"/>
     <tableColumn id="17" xr3:uid="{3F51254F-F630-45BD-880C-B38DF3840D06}" name="PDF ready"/>
+    <tableColumn id="2" xr3:uid="{918E03E9-F3A1-4828-8CD3-12795128BAE4}" name="Export Status"/>
+    <tableColumn id="4" xr3:uid="{DD233DD5-C832-46AA-A50C-695876A1F8D7}" name="DOCX File"/>
+    <tableColumn id="5" xr3:uid="{D3AEDD5B-F262-4E68-B3EA-F7DC7F3EAD55}" name="PDF File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4505,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC74C1-61C3-4EC9-91C0-0C7BFA0AA9FA}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4521,7 +4551,7 @@
     <col min="6" max="6" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4529,94 +4559,118 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">
@@ -4649,30 +4703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
-    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
-    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC33DFC302CBA0449406AFB85C182DE4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7007d3bda97433e4fe00947eab73be3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96209975-8a7a-41da-8328-940494a70b49" xmlns:ns3="9138261c-9a0d-474c-bc1a-0999897f62e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3237d4a64bd12c0c7b6380b76995417" ns2:_="" ns3:_="">
     <xsd:import namespace="96209975-8a7a-41da-8328-940494a70b49"/>
@@ -4958,26 +4988,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
-    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
+    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
+    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3A7F09-46E5-4AA4-B8F8-12315DFC041E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4994,4 +5029,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
+    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62C3E7-F533-4A60-AABC-18FD031B6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC6D6C-7F43-44A0-A4BA-17AA0E64030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Site</t>
   </si>
@@ -144,7 +144,7 @@
     <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.docx</t>
   </si>
   <si>
-    <t>FAILED: Call was rejected by callee. (Exception from HRESULT: 0x80010001 (RPC_E_CALL_REJECTED))</t>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.pdf</t>
   </si>
 </sst>
 </file>
@@ -4620,10 +4620,13 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC6D6C-7F43-44A0-A4BA-17AA0E64030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FFC28-7E33-4A14-8644-026098241061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Site</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Priyadharshini GOWRISANKAR</t>
   </si>
   <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -135,16 +132,25 @@
     <t>OK</t>
   </si>
   <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.pdf</t>
-  </si>
-  <si>
     <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.docx</t>
   </si>
   <si>
     <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.docx</t>
   </si>
   <si>
+    <t>itec45454545454545</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0323421_Priyadharshini GOWRISANKAR.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.pdf</t>
+  </si>
+  <si>
     <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0323421_Priyadharshini GOWRISANKAR.pdf</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4544,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4559,7 +4565,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -4571,13 +4577,13 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -4597,13 +4603,13 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4614,30 +4620,40 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4706,6 +4722,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
+    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
+    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC33DFC302CBA0449406AFB85C182DE4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7007d3bda97433e4fe00947eab73be3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96209975-8a7a-41da-8328-940494a70b49" xmlns:ns3="9138261c-9a0d-474c-bc1a-0999897f62e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3237d4a64bd12c0c7b6380b76995417" ns2:_="" ns3:_="">
     <xsd:import namespace="96209975-8a7a-41da-8328-940494a70b49"/>
@@ -4991,31 +5031,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
+    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
-    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
-    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3A7F09-46E5-4AA4-B8F8-12315DFC041E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5032,23 +5067,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
-    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FFC28-7E33-4A14-8644-026098241061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3569EB-2D69-4751-8AE8-797AF18392C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Site</t>
   </si>
@@ -129,28 +129,25 @@
     <t>PDF File</t>
   </si>
   <si>
+    <t>itec45454545454545</t>
+  </si>
+  <si>
+    <t>Juan Dioses</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2222222</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.docx</t>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Juan Dioses.docx</t>
   </si>
   <si>
     <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.docx</t>
   </si>
   <si>
-    <t>itec45454545454545</t>
-  </si>
-  <si>
     <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0323421_Priyadharshini GOWRISANKAR.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483422_Angoi Ludovic Nguessan NGORAN.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0483421_Angoi Ludovic Nguessan NGORAN.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0323421_Priyadharshini GOWRISANKAR.pdf</t>
   </si>
 </sst>
 </file>
@@ -4544,7 +4541,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4591,10 +4588,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -4603,13 +4600,10 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4626,13 +4620,10 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4640,20 +4631,17 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4722,30 +4710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
-    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
-    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC33DFC302CBA0449406AFB85C182DE4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7007d3bda97433e4fe00947eab73be3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96209975-8a7a-41da-8328-940494a70b49" xmlns:ns3="9138261c-9a0d-474c-bc1a-0999897f62e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3237d4a64bd12c0c7b6380b76995417" ns2:_="" ns3:_="">
     <xsd:import namespace="96209975-8a7a-41da-8328-940494a70b49"/>
@@ -5031,26 +4995,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
-    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
+    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
+    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3A7F09-46E5-4AA4-B8F8-12315DFC041E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5067,4 +5036,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
+    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590933A4-2EAC-43D7-8920-78DA5A73FCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B809F4-342D-4946-835D-AFF04E366D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Agent</t>
   </si>
@@ -80,6 +80,12 @@
     <t>RITM0493920</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>RITM0427680</t>
+  </si>
+  <si>
     <t>Sara AHMAD TORRES</t>
   </si>
   <si>
@@ -89,7 +95,25 @@
     <t>Antoine Patrick Colin ANDRAULT</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Open:1</t>
+  </si>
+  <si>
+    <t>Juan Carlos DIOSES</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493918_Sara AHMAD TORRES.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493919_Ledio AHMETAJ.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493920_Antoine Patrick Colin ANDRAULT.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0427680_Juan Carlos DIOSES.pdf</t>
   </si>
 </sst>
 </file>
@@ -499,7 +523,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -554,10 +578,16 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -565,26 +595,63 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
@@ -646,30 +713,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
-    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
-    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC33DFC302CBA0449406AFB85C182DE4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7007d3bda97433e4fe00947eab73be3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96209975-8a7a-41da-8328-940494a70b49" xmlns:ns3="9138261c-9a0d-474c-bc1a-0999897f62e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3237d4a64bd12c0c7b6380b76995417" ns2:_="" ns3:_="">
     <xsd:import namespace="96209975-8a7a-41da-8328-940494a70b49"/>
@@ -955,26 +998,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Intranet_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <DocCategory xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4" xsi:nil="true"/>
+    <Sermaq_x0020_Document_x0020_Type xmlns="9138261c-9a0d-474c-bc1a-0999897f62e4">(Please Select)</Sermaq_x0020_Document_x0020_Type>
+    <Document_x0020_Type xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Document_x0020_Type_x0020_Dynamic xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <WIKI_x0020_Location xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+    <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
-    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3A7F09-46E5-4AA4-B8F8-12315DFC041E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -991,4 +1039,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96209975-8a7a-41da-8328-940494a70b49"/>
+    <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B809F4-342D-4946-835D-AFF04E366D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919EAE2-523E-4D07-B8D8-3C99C06412D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Agent</t>
   </si>
@@ -53,74 +53,68 @@
     <t>Estado de RITM</t>
   </si>
   <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Export Status</t>
+  </si>
+  <si>
+    <t>DOCX File</t>
+  </si>
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>RITM0493918</t>
+  </si>
+  <si>
+    <t>RITM0493919</t>
+  </si>
+  <si>
+    <t>RITM0493920</t>
+  </si>
+  <si>
+    <t>RITM0427680</t>
+  </si>
+  <si>
+    <t>Detected PI / Machine</t>
+  </si>
+  <si>
+    <t>SCTask 1</t>
+  </si>
+  <si>
+    <t>Sara AHMAD TORRES</t>
+  </si>
+  <si>
+    <t>Open:1</t>
+  </si>
+  <si>
+    <t>Ledio AHMETAJ</t>
+  </si>
+  <si>
+    <t>Antoine Patrick Colin ANDRAULT</t>
+  </si>
+  <si>
+    <t>Juan Carlos DIOSES</t>
+  </si>
+  <si>
     <t>Closed Complete</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>Export Status</t>
-  </si>
-  <si>
-    <t>DOCX File</t>
-  </si>
-  <si>
-    <t>PDF File</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>RITM0493918</t>
-  </si>
-  <si>
-    <t>RITM0493919</t>
-  </si>
-  <si>
-    <t>RITM0493920</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>RITM0427680</t>
-  </si>
-  <si>
-    <t>Sara AHMAD TORRES</t>
-  </si>
-  <si>
-    <t>Ledio AHMETAJ</t>
-  </si>
-  <si>
-    <t>Antoine Patrick Colin ANDRAULT</t>
-  </si>
-  <si>
-    <t>Open:1</t>
-  </si>
-  <si>
-    <t>Juan Carlos DIOSES</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493918_Sara AHMAD TORRES.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493919_Ledio AHMETAJ.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493920_Antoine Patrick Colin ANDRAULT.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0427680_Juan Carlos DIOSES.pdf</t>
+    <t>No open tasks.</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2424012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +126,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,10 +153,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,8 +166,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -186,9 +191,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{199A9278-3730-4973-B609-12842F197324}" name="BRU" displayName="BRU" ref="A1:I1048424" totalsRowShown="0">
-  <autoFilter ref="A1:I1048424" xr:uid="{B88FF8E2-9E10-44CB-9A77-4DA4DC36F139}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{199A9278-3730-4973-B609-12842F197324}" name="BRU" displayName="BRU" ref="A1:K1048424" totalsRowShown="0">
+  <autoFilter ref="A1:K1048424" xr:uid="{B88FF8E2-9E10-44CB-9A77-4DA4DC36F139}"/>
+  <tableColumns count="11">
     <tableColumn id="3" xr3:uid="{C178B8AC-3540-430B-AFE2-F6D65F917B26}" name="Agent"/>
     <tableColumn id="1" xr3:uid="{84021FBE-D436-48FD-AB30-BC142BF95483}" name="Name"/>
     <tableColumn id="8" xr3:uid="{9FBAF676-FA27-4F83-8687-55747CF1065F}" name="PI"/>
@@ -198,6 +203,8 @@
     <tableColumn id="2" xr3:uid="{918E03E9-F3A1-4828-8CD3-12795128BAE4}" name="Export Status"/>
     <tableColumn id="4" xr3:uid="{DD233DD5-C832-46AA-A50C-695876A1F8D7}" name="DOCX File"/>
     <tableColumn id="5" xr3:uid="{D3AEDD5B-F262-4E68-B3EA-F7DC7F3EAD55}" name="PDF File"/>
+    <tableColumn id="6" xr3:uid="{5368C41E-70ED-4EEF-9422-8E1A7272C33D}" name="Detected PI / Machine"/>
+    <tableColumn id="9" xr3:uid="{32A17445-9581-4072-A55C-1D36064F49BB}" name="SCTask 1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC74C1-61C3-4EC9-91C0-0C7BFA0AA9FA}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +543,7 @@
     <col min="6" max="6" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -556,16 +563,22 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -573,114 +586,102 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">
@@ -704,10 +705,16 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{B435371D-F300-4A57-BA58-6A5333C85AE2}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{54E5E404-CCC6-4097-8F21-14AA4E2F3226}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{6C0D05CC-BB71-430C-BAE4-B4242DC6E4FD}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{CFA47970-0B21-4108-8971-174A7E65BDC5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -999,15 +1006,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Status xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
@@ -1020,6 +1018,15 @@
     <Category xmlns="96209975-8a7a-41da-8328-940494a70b49" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,14 +1049,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E775BF06-D596-4D5F-8037-CA6A47259101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1058,4 +1057,12 @@
     <ds:schemaRef ds:uri="9138261c-9a0d-474c-bc1a-0999897f62e4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E471ED25-EF42-415D-BACA-E035C79D438D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919EAE2-523E-4D07-B8D8-3C99C06412D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9639A7-ECB8-4198-B4ED-903A94958688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1D924867-5138-4414-9B39-ADB0E20E2123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Agent</t>
   </si>
@@ -104,10 +104,10 @@
     <t>Closed Complete</t>
   </si>
   <si>
+    <t>MUSTBRUN2424012</t>
+  </si>
+  <si>
     <t>No open tasks.</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2424012</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC74C1-61C3-4EC9-91C0-0C7BFA0AA9FA}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="E2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,6 +641,9 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
@@ -648,10 +651,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -706,10 +709,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{B435371D-F300-4A57-BA58-6A5333C85AE2}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{54E5E404-CCC6-4097-8F21-14AA4E2F3226}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{6C0D05CC-BB71-430C-BAE4-B4242DC6E4FD}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{CFA47970-0B21-4108-8971-174A7E65BDC5}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{90DB486E-2490-4005-80B6-F73772366ACD}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{68D78256-64DF-422A-AFCE-0B8500E22997}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{38387434-97FF-4D72-B8C2-C9974D338B24}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{B68FBA6D-8CB8-4FA4-8521-CDDE6F21B138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95045ED9-B09B-4B88-A686-64A821565953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D18817A-F346-4076-955C-E873396A504A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Agent</t>
   </si>
@@ -89,6 +89,9 @@
     <t>RITM0104655</t>
   </si>
   <si>
+    <t>INC0404926</t>
+  </si>
+  <si>
     <t>Sara AHMAD TORRES</t>
   </si>
   <si>
@@ -107,26 +110,47 @@
     <t>Juan DIOSES</t>
   </si>
   <si>
-    <t>MUSTBRUN2424012</t>
-  </si>
-  <si>
     <t>CEBOLLA NICUESA Mireia</t>
   </si>
   <si>
-    <t>02PI20200923448</t>
-  </si>
-  <si>
     <t>Zeljana VUKOVIĆ</t>
   </si>
   <si>
-    <t>PRESBRUN1907058</t>
+    <t>Juan Emilio AYUSO GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>02PI20242016586</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493918_Sara AHMAD TORRES.docx</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493919_Ledio AHMETAJ.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493920_Antoine Patrick Colin ANDRAULT.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0427680_Juan DIOSES.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0105308_CEBOLLA NICUESA Mireia.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0104655_Zeljana VUKOVIĆ.docx</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\INC0404926_Juan Emilio AYUSO GONZÁLEZ.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +162,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,14 +189,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,13 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -542,98 +584,154 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{59585F40-4AAF-43F9-BA11-10CD9EAB8E39}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{40E3698D-7AE4-4500-9E99-3412DDE4269C}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{2019DBCD-8C10-4950-B70A-AC46EB3431CA}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{466CA5CF-F6FE-4450-80B5-763D38FF5EEB}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{3418A013-5CE9-430E-9F03-899F51503684}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{1676A4D9-3E87-4665-9AAE-EBC6142D3C2A}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{5C17BCF2-2C81-4F74-BDEB-67EE6046A3F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D18817A-F346-4076-955C-E873396A504A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D7F4BA-3EDB-4E0E-917D-AFFA7E8B1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Agent</t>
   </si>
@@ -110,40 +110,49 @@
     <t>Juan DIOSES</t>
   </si>
   <si>
+    <t>MUSTBRUN2424012</t>
+  </si>
+  <si>
     <t>CEBOLLA NICUESA Mireia</t>
   </si>
   <si>
+    <t>02PI20200923448</t>
+  </si>
+  <si>
     <t>Zeljana VUKOVIĆ</t>
   </si>
   <si>
+    <t>PRESBRUN1907058</t>
+  </si>
+  <si>
     <t>Juan Emilio AYUSO GONZÁLEZ</t>
   </si>
   <si>
     <t>02PI20242016586</t>
   </si>
   <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493918_Sara AHMAD TORRES.docx</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493919_Ledio AHMETAJ.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493920_Antoine Patrick Colin ANDRAULT.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0427680_Juan DIOSES.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0105308_CEBOLLA NICUESA Mireia.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0104655_Zeljana VUKOVIĆ.docx</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\INC0404926_Juan Emilio AYUSO GONZÁLEZ.docx</t>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493918_Sara AHMAD TORRES.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493919_Ledio AHMETAJ.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493920_Antoine Patrick Colin ANDRAULT.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0427680_Juan DIOSES.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0105308_CEBOLLA NICUESA Mireia.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0104655_Zeljana VUKOVIĆ.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\INC0404926_Juan Emilio AYUSO GONZÁLEZ.pdf</t>
   </si>
 </sst>
 </file>
@@ -534,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -616,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -636,16 +645,19 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
         <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -656,15 +668,18 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -676,15 +691,18 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -696,18 +714,18 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -716,21 +734,21 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{59585F40-4AAF-43F9-BA11-10CD9EAB8E39}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{40E3698D-7AE4-4500-9E99-3412DDE4269C}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{2019DBCD-8C10-4950-B70A-AC46EB3431CA}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{466CA5CF-F6FE-4450-80B5-763D38FF5EEB}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{3418A013-5CE9-430E-9F03-899F51503684}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{1676A4D9-3E87-4665-9AAE-EBC6142D3C2A}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{5C17BCF2-2C81-4F74-BDEB-67EE6046A3F3}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FAA87AE1-4395-49C6-A11D-99301DD89BDE}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{1B31E10D-4F05-42E2-9A65-7461A7910912}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{7D0CB081-C59C-4B9D-AD50-95BD132BEC86}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{2EE54EBB-BC4C-4E8A-9392-BF9B1AAF7288}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{0CDE91AA-1C72-442C-A026-9B30753B94B9}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{66A7C67C-44F1-4809-8C48-2B65F0D3C131}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{3691564E-4A69-4035-BC4E-E7A114EB3442}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D7F4BA-3EDB-4E0E-917D-AFFA7E8B1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC63A7-AEC9-42B7-A555-3831FC943144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Agent</t>
   </si>
@@ -71,88 +71,16 @@
     <t>PI History / Comment</t>
   </si>
   <si>
-    <t>RITM0493918</t>
-  </si>
-  <si>
-    <t>RITM0493919</t>
-  </si>
-  <si>
-    <t>RITM0493920</t>
-  </si>
-  <si>
-    <t>RITM0427680</t>
-  </si>
-  <si>
-    <t>RITM0105308</t>
-  </si>
-  <si>
-    <t>RITM0104655</t>
-  </si>
-  <si>
-    <t>INC0404926</t>
-  </si>
-  <si>
-    <t>Sara AHMAD TORRES</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>No open tasks.</t>
-  </si>
-  <si>
-    <t>Ledio AHMETAJ</t>
-  </si>
-  <si>
-    <t>Antoine Patrick Colin ANDRAULT</t>
-  </si>
-  <si>
-    <t>Juan DIOSES</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2424012</t>
-  </si>
-  <si>
-    <t>CEBOLLA NICUESA Mireia</t>
-  </si>
-  <si>
-    <t>02PI20200923448</t>
-  </si>
-  <si>
-    <t>Zeljana VUKOVIĆ</t>
-  </si>
-  <si>
-    <t>PRESBRUN1907058</t>
-  </si>
-  <si>
-    <t>Juan Emilio AYUSO GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>02PI20242016586</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493918_Sara AHMAD TORRES.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493919_Ledio AHMETAJ.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0493920_Antoine Patrick Colin ANDRAULT.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0427680_Juan DIOSES.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0105308_CEBOLLA NICUESA Mireia.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0104655_Zeljana VUKOVIĆ.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\INC0404926_Juan Emilio AYUSO GONZÁLEZ.pdf</t>
+    <t>RITM0496748</t>
+  </si>
+  <si>
+    <t>Dashboard Status</t>
+  </si>
+  <si>
+    <t>Present Time</t>
+  </si>
+  <si>
+    <t>Closed Time</t>
   </si>
 </sst>
 </file>
@@ -541,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +484,7 @@
     <col min="6" max="6" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,165 +518,24 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FAA87AE1-4395-49C6-A11D-99301DD89BDE}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{1B31E10D-4F05-42E2-9A65-7461A7910912}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{7D0CB081-C59C-4B9D-AD50-95BD132BEC86}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{2EE54EBB-BC4C-4E8A-9392-BF9B1AAF7288}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{0CDE91AA-1C72-442C-A026-9B30753B94B9}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{66A7C67C-44F1-4809-8C48-2B65F0D3C131}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{3691564E-4A69-4035-BC4E-E7A114EB3442}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4A55F518-BC43-4F4B-A736-71A3525F9099}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC63A7-AEC9-42B7-A555-3831FC943144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC698C-A0C2-488E-B750-6320000C6E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Agent</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>Closed Time</t>
+  </si>
+  <si>
+    <t>SCTask Split</t>
+  </si>
+  <si>
+    <t>Juan Carlos DIOSES</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>SCTASK0887406</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>Appointment</t>
   </si>
 </sst>
 </file>
@@ -130,10 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +503,7 @@
     <col min="6" max="6" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,15 +546,40 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3">
+        <v>46070.919456018521</v>
+      </c>
+      <c r="N2" s="3">
+        <v>46070.925150462965</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{4A55F518-BC43-4F4B-A736-71A3525F9099}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{662D740C-96B0-4ABE-9484-C8ED08851606}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{CBA8F583-0467-46BA-B344-E2A847E46AF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC698C-A0C2-488E-B750-6320000C6E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FCF65-A745-43C4-ADF0-8FE100A00E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>PARENT</t>
   </si>
   <si>
-    <t>Appointment</t>
+    <t>Checked-In</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{662D740C-96B0-4ABE-9484-C8ED08851606}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{CBA8F583-0467-46BA-B344-E2A847E46AF1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{73311D4D-641F-45A6-93BB-91B9312B0485}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{B495E860-4463-4AF1-B828-0F80D6783D19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FCF65-A745-43C4-ADF0-8FE100A00E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8ECD73-4071-4972-803D-90B4D888EFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Agent</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Checked-In</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0496748 - CARLOS-DIOSES-JUAN.pdf</t>
   </si>
 </sst>
 </file>
@@ -563,6 +569,12 @@
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
@@ -578,8 +590,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{73311D4D-641F-45A6-93BB-91B9312B0485}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{B495E860-4463-4AF1-B828-0F80D6783D19}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F7789C4E-41D2-4F0C-8E4B-8E79732C2EEB}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{56C38E06-61B9-4F9F-9B16-CF672B94DCC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8ECD73-4071-4972-803D-90B4D888EFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D909EE-A88D-406B-AFF9-D11A3084D328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Agent</t>
   </si>
@@ -86,6 +86,12 @@
     <t>SCTask Split</t>
   </si>
   <si>
+    <t>RITM0405052</t>
+  </si>
+  <si>
+    <t>RITM0493120</t>
+  </si>
+  <si>
     <t>Juan Carlos DIOSES</t>
   </si>
   <si>
@@ -98,13 +104,46 @@
     <t>PARENT</t>
   </si>
   <si>
-    <t>Checked-In</t>
+    <t>Alexandra DE TORNACO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425601</t>
+  </si>
+  <si>
+    <t>SCTASK0708535</t>
+  </si>
+  <si>
+    <t>Aneta KORZENIECKA</t>
+  </si>
+  <si>
+    <t>SCTASK0880081</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>SCTASK0762732</t>
+  </si>
+  <si>
+    <t>SCTASK0784120</t>
+  </si>
+  <si>
+    <t>SCTASK0784119</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0496748 - CARLOS-DIOSES-JUAN.pdf</t>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0496748 - DIOSES-JUAN-CARLOS.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0405052 - TORNACO-ALEXANDRA-DE.pdf</t>
+  </si>
+  <si>
+    <t>SKIPPED: PDF exists</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0493120 - KORZENIECKA-ANETA.pdf</t>
   </si>
 </sst>
 </file>
@@ -154,11 +193,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,40 +596,168 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3">
-        <v>46070.919456018521</v>
-      </c>
-      <c r="N2" s="3">
-        <v>46070.925150462965</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{F7789C4E-41D2-4F0C-8E4B-8E79732C2EEB}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{56C38E06-61B9-4F9F-9B16-CF672B94DCC2}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6BDCF609-DA45-40F0-800B-D767797CC244}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{A3950CE5-653D-4AF7-B185-CF4171C067C0}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{7491E02F-0EBB-4210-96F8-B9DD8F501625}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{BED1028C-CC3F-44F7-9110-85FAA2349DE0}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{DFD6A39F-6312-486F-9B92-E4D617B5D9AE}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{2C5D0CB5-9DC6-4D7F-A053-A102B8AA1D31}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{AC1E3E0F-F27B-43C5-A99A-070624E83B82}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{C345EA21-D8AB-4C68-BFF4-6EA0ADFA6C3E}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{1983DA36-5D5D-461A-81A2-04F7416D6F10}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{46B83890-D148-4794-B0B5-18387F83FAEB}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{C5457092-D105-4FB7-B337-4B532C49F2BF}"/>
+    <hyperlink ref="F6" r:id="rId12" xr:uid="{788A258A-316A-43CD-9A61-5D87F94BE399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D909EE-A88D-406B-AFF9-D11A3084D328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359E22E-24F7-4920-9FAB-B11A7B505D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="225">
   <si>
     <t>Agent</t>
   </si>
@@ -92,6 +92,213 @@
     <t>RITM0493120</t>
   </si>
   <si>
+    <t>INC0404030</t>
+  </si>
+  <si>
+    <t>INC0405320</t>
+  </si>
+  <si>
+    <t>INC0404913</t>
+  </si>
+  <si>
+    <t>INC0404662</t>
+  </si>
+  <si>
+    <t>INC0403929</t>
+  </si>
+  <si>
+    <t>INC0404073</t>
+  </si>
+  <si>
+    <t>INC0398334</t>
+  </si>
+  <si>
+    <t>INC0400192</t>
+  </si>
+  <si>
+    <t>INC0399952</t>
+  </si>
+  <si>
+    <t>INC0399909</t>
+  </si>
+  <si>
+    <t>INC0399906</t>
+  </si>
+  <si>
+    <t>INC0398797</t>
+  </si>
+  <si>
+    <t>INC0399068</t>
+  </si>
+  <si>
+    <t>INC0398566</t>
+  </si>
+  <si>
+    <t>INC0397938</t>
+  </si>
+  <si>
+    <t>INC0396829</t>
+  </si>
+  <si>
+    <t>INC0390677</t>
+  </si>
+  <si>
+    <t>INC0384484</t>
+  </si>
+  <si>
+    <t>INC0396867</t>
+  </si>
+  <si>
+    <t>INC0393533</t>
+  </si>
+  <si>
+    <t>INC0393530</t>
+  </si>
+  <si>
+    <t>INC0393057</t>
+  </si>
+  <si>
+    <t>INC0392998</t>
+  </si>
+  <si>
+    <t>INC0386947</t>
+  </si>
+  <si>
+    <t>INC0381429</t>
+  </si>
+  <si>
+    <t>INC0381995</t>
+  </si>
+  <si>
+    <t>INC0377661</t>
+  </si>
+  <si>
+    <t>INC0376136</t>
+  </si>
+  <si>
+    <t>INC0377128</t>
+  </si>
+  <si>
+    <t>INC0376121</t>
+  </si>
+  <si>
+    <t>INC0375309</t>
+  </si>
+  <si>
+    <t>INC0372528</t>
+  </si>
+  <si>
+    <t>INC0373224</t>
+  </si>
+  <si>
+    <t>INC0374026</t>
+  </si>
+  <si>
+    <t>INC0370735</t>
+  </si>
+  <si>
+    <t>INC0365085</t>
+  </si>
+  <si>
+    <t>INC0368029</t>
+  </si>
+  <si>
+    <t>INC0370558</t>
+  </si>
+  <si>
+    <t>INC0372344</t>
+  </si>
+  <si>
+    <t>INC0353533</t>
+  </si>
+  <si>
+    <t>INC0367376</t>
+  </si>
+  <si>
+    <t>INC0350488</t>
+  </si>
+  <si>
+    <t>INC0346775</t>
+  </si>
+  <si>
+    <t>INC0370773</t>
+  </si>
+  <si>
+    <t>INC0370852</t>
+  </si>
+  <si>
+    <t>INC0370721</t>
+  </si>
+  <si>
+    <t>INC0357741</t>
+  </si>
+  <si>
+    <t>INC0240792</t>
+  </si>
+  <si>
+    <t>INC0357389</t>
+  </si>
+  <si>
+    <t>INC0354452</t>
+  </si>
+  <si>
+    <t>RITM0395760</t>
+  </si>
+  <si>
+    <t>RITM0400363</t>
+  </si>
+  <si>
+    <t>RITM0400334</t>
+  </si>
+  <si>
+    <t>RITM0429435</t>
+  </si>
+  <si>
+    <t>RITM0430321</t>
+  </si>
+  <si>
+    <t>RITM0430778</t>
+  </si>
+  <si>
+    <t>RITM0400091</t>
+  </si>
+  <si>
+    <t>RITM0400088</t>
+  </si>
+  <si>
+    <t>RITM0420978</t>
+  </si>
+  <si>
+    <t>RITM0405042</t>
+  </si>
+  <si>
+    <t>RITM0433027</t>
+  </si>
+  <si>
+    <t>RITM0433109</t>
+  </si>
+  <si>
+    <t>RITM0433132</t>
+  </si>
+  <si>
+    <t>RITM0433154</t>
+  </si>
+  <si>
+    <t>RITM0433331</t>
+  </si>
+  <si>
+    <t>RITM0420972</t>
+  </si>
+  <si>
+    <t>RITM0434588</t>
+  </si>
+  <si>
+    <t>RITM0434592</t>
+  </si>
+  <si>
+    <t>RITM0434593</t>
+  </si>
+  <si>
     <t>Juan Carlos DIOSES</t>
   </si>
   <si>
@@ -119,38 +326,398 @@
     <t>SCTASK0880081</t>
   </si>
   <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>SCTASK0762732</t>
-  </si>
-  <si>
-    <t>SCTASK0784120</t>
-  </si>
-  <si>
-    <t>SCTASK0784119</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0496748 - DIOSES-JUAN-CARLOS.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0405052 - TORNACO-ALEXANDRA-DE.pdf</t>
-  </si>
-  <si>
-    <t>SKIPPED: PDF exists</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\2026-02-17\20260217 - RITM0493120 - KORZENIECKA-ANETA.pdf</t>
+    <t>Natalia Maria VALENCIA AGUIRRE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425371</t>
+  </si>
+  <si>
+    <t>Georgiana SANDU</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2334714</t>
+  </si>
+  <si>
+    <t>Klaudia ARBETOVA</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421355</t>
+  </si>
+  <si>
+    <t>Gabriel Stanislav Vladimir LITERA</t>
+  </si>
+  <si>
+    <t>Sandrina MARCUZZO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425125</t>
+  </si>
+  <si>
+    <t>Marika SULANKO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420461</t>
+  </si>
+  <si>
+    <t>Anastasia COUCOURATOS</t>
+  </si>
+  <si>
+    <t>02PI20140917135</t>
+  </si>
+  <si>
+    <t>Liselotte JENSEN</t>
+  </si>
+  <si>
+    <t>Lucie Agnès Marie Olga MAISTRELLI</t>
+  </si>
+  <si>
+    <t>Kristýna MAŤÁTKOVÁ</t>
+  </si>
+  <si>
+    <t>Ana RADOČAJ</t>
+  </si>
+  <si>
+    <t>Angelika KISS</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420747</t>
+  </si>
+  <si>
+    <t>Maria Nazareth ECHART ORUS</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2333965</t>
+  </si>
+  <si>
+    <t>Krista DANKERE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2036708</t>
+  </si>
+  <si>
+    <t>Maja SABOL</t>
+  </si>
+  <si>
+    <t>Cristina SANCHEZ VILLA</t>
+  </si>
+  <si>
+    <t>02PI20233264742, MUSTBRUN2423446</t>
+  </si>
+  <si>
+    <t>Wojciech KUZMA</t>
+  </si>
+  <si>
+    <t>Tajana LJUBIČIĆ</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2334472</t>
+  </si>
+  <si>
+    <t>Luc JEUNESSE</t>
+  </si>
+  <si>
+    <t>02PI20242843962</t>
+  </si>
+  <si>
+    <t>Maria Antoaneta NEAG</t>
+  </si>
+  <si>
+    <t>02PI20242705674</t>
+  </si>
+  <si>
+    <t>Kateřina HEROUTOVÁ</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420940</t>
+  </si>
+  <si>
+    <t>Igor DEQUECKER</t>
+  </si>
+  <si>
+    <t>02PI20191989578, 02PI2019198578</t>
+  </si>
+  <si>
+    <t>Christos PAPAGIANNIS</t>
+  </si>
+  <si>
+    <t>02PI20242397849</t>
+  </si>
+  <si>
+    <t>Nicolas DORGERET</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2508215</t>
+  </si>
+  <si>
+    <t>Ramune TAMASAUSKAITE</t>
+  </si>
+  <si>
+    <t>02PI20242016283, 02PI20233397147</t>
+  </si>
+  <si>
+    <t>Cesar Augusto CASTELLO MORENO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2426375</t>
+  </si>
+  <si>
+    <t>Alina Leandra Ó RIADA</t>
+  </si>
+  <si>
+    <t>02PI20203679120</t>
+  </si>
+  <si>
+    <t>02PI20242136678</t>
+  </si>
+  <si>
+    <t>Francesco BARCHIELLI</t>
+  </si>
+  <si>
+    <t>02PI20242360243WASI</t>
+  </si>
+  <si>
+    <t>Anna ARESU</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425910</t>
+  </si>
+  <si>
+    <t>Stephanie HONNEFELDER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2508216</t>
+  </si>
+  <si>
+    <t>Philine SCHOLZE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421735, 02PI20250819606</t>
+  </si>
+  <si>
+    <t>Ariane DEBYSER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425050</t>
+  </si>
+  <si>
+    <t>Rachid AHAJJAM</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421304</t>
+  </si>
+  <si>
+    <t>Gianna GRIGÒ</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421392</t>
+  </si>
+  <si>
+    <t>Fabiola VALENTINI</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423870</t>
+  </si>
+  <si>
+    <t>Maria TOADER</t>
+  </si>
+  <si>
+    <t>02PI20241996977</t>
+  </si>
+  <si>
+    <t>Samuel DE LEMOS PEIXOTO</t>
+  </si>
+  <si>
+    <t>02PI20231287180</t>
+  </si>
+  <si>
+    <t>Elise HANCOTTE</t>
+  </si>
+  <si>
+    <t>Ellen Sarah VAN NIEUWENHUYZE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421379</t>
+  </si>
+  <si>
+    <t>Anastasia MITRONATSIOU</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425798</t>
+  </si>
+  <si>
+    <t>5c7518931beb241018d65398624bcb08</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425955</t>
+  </si>
+  <si>
+    <t>David SCHWANDER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425390</t>
+  </si>
+  <si>
+    <t>Karin SAUERTEIG</t>
+  </si>
+  <si>
+    <t>02PI20200227608</t>
+  </si>
+  <si>
+    <t>Barbara KRAFT</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2332364</t>
+  </si>
+  <si>
+    <t>Virginie REMACLE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2426486</t>
+  </si>
+  <si>
+    <t>Ana SÁEZ-BENITO CAUVILLA</t>
+  </si>
+  <si>
+    <t>Bettina BLASIG</t>
+  </si>
+  <si>
+    <t>02PI20210751648</t>
+  </si>
+  <si>
+    <t>Cedric Franz K GOOR</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2115651</t>
+  </si>
+  <si>
+    <t>Maria-teresa GONZALEZ CABALLERO</t>
+  </si>
+  <si>
+    <t>Tania DE POORTER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421299</t>
+  </si>
+  <si>
+    <t>SCTASK0689026</t>
+  </si>
+  <si>
+    <t>Dora Cristina BARREIRA RAMOS</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420933</t>
+  </si>
+  <si>
+    <t>SCTASK0698388</t>
+  </si>
+  <si>
+    <t>Devrim ATES</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425474</t>
+  </si>
+  <si>
+    <t>SCTASK0698363</t>
+  </si>
+  <si>
+    <t>SCTASK0756216</t>
+  </si>
+  <si>
+    <t>SCTASK0758095</t>
+  </si>
+  <si>
+    <t>Satu Simona POUTANEN</t>
+  </si>
+  <si>
+    <t>SCTASK0758952</t>
+  </si>
+  <si>
+    <t>Lina BARSTYTE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2424523</t>
+  </si>
+  <si>
+    <t>SCTASK0698111</t>
+  </si>
+  <si>
+    <t>Johannes LITZELMANN</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2424524</t>
+  </si>
+  <si>
+    <t>SCTASK0698108</t>
+  </si>
+  <si>
+    <t>Michael Alexander SPEISER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2505542</t>
+  </si>
+  <si>
+    <t>SCTASK0739497</t>
+  </si>
+  <si>
+    <t>Susan NITSCHE</t>
+  </si>
+  <si>
+    <t>SCTASK0708526</t>
+  </si>
+  <si>
+    <t>Giulia PASCUZZI</t>
+  </si>
+  <si>
+    <t>SCTASK0763066</t>
+  </si>
+  <si>
+    <t>Léa Lucie Léontine SAUBION</t>
+  </si>
+  <si>
+    <t>SCTASK0763194</t>
+  </si>
+  <si>
+    <t>Noémie Kerfalie Helena Jane-Nolwe NGANGA</t>
+  </si>
+  <si>
+    <t>SCTASK0763230</t>
+  </si>
+  <si>
+    <t>SCTASK0763271</t>
+  </si>
+  <si>
+    <t>Jauram REISNER</t>
+  </si>
+  <si>
+    <t>SCTASK0763566</t>
+  </si>
+  <si>
+    <t>Laura PROIETTI</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423960</t>
+  </si>
+  <si>
+    <t>SCTASK0739491</t>
+  </si>
+  <si>
+    <t>New EP User</t>
+  </si>
+  <si>
+    <t>SCTASK0765919</t>
+  </si>
+  <si>
+    <t>SCTASK0765928</t>
+  </si>
+  <si>
+    <t>SCTASK0765931</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +734,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,18 +763,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1D7AC411-0A0C-4C5D-BF15-F6D769099F62}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D306" sqref="D81:D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,168 +1175,1313 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
-        <v>21</v>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O80" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{6BDCF609-DA45-40F0-800B-D767797CC244}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{A3950CE5-653D-4AF7-B185-CF4171C067C0}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{7491E02F-0EBB-4210-96F8-B9DD8F501625}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{BED1028C-CC3F-44F7-9110-85FAA2349DE0}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{DFD6A39F-6312-486F-9B92-E4D617B5D9AE}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{2C5D0CB5-9DC6-4D7F-A053-A102B8AA1D31}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{AC1E3E0F-F27B-43C5-A99A-070624E83B82}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{C345EA21-D8AB-4C68-BFF4-6EA0ADFA6C3E}"/>
-    <hyperlink ref="D5" r:id="rId9" xr:uid="{1983DA36-5D5D-461A-81A2-04F7416D6F10}"/>
-    <hyperlink ref="F5" r:id="rId10" xr:uid="{46B83890-D148-4794-B0B5-18387F83FAEB}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{C5457092-D105-4FB7-B337-4B532C49F2BF}"/>
-    <hyperlink ref="F6" r:id="rId12" xr:uid="{788A258A-316A-43CD-9A61-5D87F94BE399}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BA17A53B-7B69-4A8F-B5D5-943D15D604FE}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{C3CC3A3B-4E52-4294-A92F-1AD1CF131189}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{9990B10D-1867-43D9-BA0D-47C428B6CBCD}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{4D8C5D9A-14DE-4C57-9E19-C63645210BFD}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{9631E2DE-DB49-4F6E-948F-A2CDDD22AF4F}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{54B28011-56EF-456F-9D3F-A31BEB6393E2}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{AE85A689-8A92-4ABE-B668-1CD1CFE4DBC0}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{66D0B9DF-21ED-4003-83D2-3CD285F8D6C8}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{EF59744B-870F-4AB0-BB1F-8FCB0A9DEFF5}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{8DEF0158-A4E1-4D25-ADC4-92F2547DFC3F}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{8AF21DE4-95AE-49BF-B02A-CC7567716124}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{2480E105-0B71-4AA5-B50A-265F3102622C}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{72A9A5E0-B280-44A7-988D-E51DDD075C35}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{4C3CF96B-6412-4390-9C4A-2314221BC426}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{EB42D5F1-5681-47B8-B34D-C04DD89513FC}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{76CD3254-22A3-4D1D-9642-6E6ED376DF4C}"/>
+    <hyperlink ref="D15" r:id="rId17" xr:uid="{270D2E4F-E509-4916-9474-C04D07DACD1C}"/>
+    <hyperlink ref="D16" r:id="rId18" xr:uid="{895634BA-2CC8-4695-BA28-32A488BEB08D}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{C84836E6-0154-4145-9A24-54D519674506}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{9EE9D938-AD8E-4A5C-AF12-31247581DDE5}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{324D88AC-6211-4BD3-AAAA-2FED0E0C0DDF}"/>
+    <hyperlink ref="D20" r:id="rId22" xr:uid="{538A9B9D-6AD6-4340-8E4D-C41EC0EA70F3}"/>
+    <hyperlink ref="D21" r:id="rId23" xr:uid="{7DAD3274-3725-4B55-A2EE-FD313CA1EF96}"/>
+    <hyperlink ref="D22" r:id="rId24" xr:uid="{5A999CE5-FDBE-446D-AFE8-5CEC90C76CB2}"/>
+    <hyperlink ref="D23" r:id="rId25" xr:uid="{512B40F0-87B8-4759-9EA4-1C93F251A2F2}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{C0F0B46E-470A-4160-9596-8D58C6E05629}"/>
+    <hyperlink ref="D25" r:id="rId27" xr:uid="{78778294-8E95-426A-ABA3-4200C666D0DC}"/>
+    <hyperlink ref="D26" r:id="rId28" xr:uid="{6AE6A030-F62A-43F7-A658-B6B5F123D159}"/>
+    <hyperlink ref="D27" r:id="rId29" xr:uid="{42B0C14A-2CB0-4B08-B197-C3C20C4CED37}"/>
+    <hyperlink ref="D28" r:id="rId30" xr:uid="{932751A1-0CA0-43D7-AC66-158524D3DBD5}"/>
+    <hyperlink ref="D29" r:id="rId31" xr:uid="{9D3F7916-CEFE-4225-B1DF-C61F2521BBE5}"/>
+    <hyperlink ref="D30" r:id="rId32" xr:uid="{DF590D16-8B2F-4637-9C73-5C49F205AF18}"/>
+    <hyperlink ref="D31" r:id="rId33" xr:uid="{64102501-E7D2-4043-8E59-30848F4F59CD}"/>
+    <hyperlink ref="D32" r:id="rId34" xr:uid="{0971E17C-2513-4629-8756-0EB1A1EC4F56}"/>
+    <hyperlink ref="D33" r:id="rId35" xr:uid="{DACDF5E9-DAC2-41DA-87A8-4CA83A5182B6}"/>
+    <hyperlink ref="D34" r:id="rId36" xr:uid="{85CB0FDD-8E9E-44E6-898A-E9EBFA593177}"/>
+    <hyperlink ref="D35" r:id="rId37" xr:uid="{D8E53470-01E7-4182-87C1-3C466D565240}"/>
+    <hyperlink ref="D36" r:id="rId38" xr:uid="{85A5BE0C-C8C5-41ED-8AC8-5010C7666D39}"/>
+    <hyperlink ref="D37" r:id="rId39" xr:uid="{29F89F9A-0B1B-4DB0-B240-9E14D7B8C360}"/>
+    <hyperlink ref="D38" r:id="rId40" xr:uid="{0A85C1AB-F5FB-4111-A7C0-D0D508C57F1B}"/>
+    <hyperlink ref="D39" r:id="rId41" xr:uid="{44486809-320E-479B-BBD8-F7E7A968CC6C}"/>
+    <hyperlink ref="D40" r:id="rId42" xr:uid="{DE68AF30-1D52-4D5A-9ACA-2A67CE737FD4}"/>
+    <hyperlink ref="D41" r:id="rId43" xr:uid="{B813B7C1-0FA6-4A68-96D8-94B201E3E28E}"/>
+    <hyperlink ref="D42" r:id="rId44" xr:uid="{1DA0B7B3-29EC-49B3-84B4-8C253C1E60F0}"/>
+    <hyperlink ref="D43" r:id="rId45" xr:uid="{571625F1-9CBD-4D34-9E9C-3CBE6131AA5A}"/>
+    <hyperlink ref="D44" r:id="rId46" xr:uid="{DB25D749-3424-4B22-9C0A-A85DAD33A870}"/>
+    <hyperlink ref="D45" r:id="rId47" xr:uid="{DCE77E6C-0159-4054-9178-469CE87DDB3B}"/>
+    <hyperlink ref="D46" r:id="rId48" xr:uid="{F01E9A25-2EA8-418B-B161-AD050013D801}"/>
+    <hyperlink ref="D47" r:id="rId49" xr:uid="{A9C50FDD-634A-461A-8695-67293685B98B}"/>
+    <hyperlink ref="D48" r:id="rId50" xr:uid="{7901BD5B-5088-466A-B9D2-2090454524E6}"/>
+    <hyperlink ref="D49" r:id="rId51" xr:uid="{16B6A56B-0C89-4B6B-BA0B-19BAB304EB64}"/>
+    <hyperlink ref="D50" r:id="rId52" xr:uid="{A8D26A38-5DFF-4A6C-B391-8F6489A3B139}"/>
+    <hyperlink ref="D51" r:id="rId53" xr:uid="{7A333D84-137A-4911-990B-4F0CD7B5700F}"/>
+    <hyperlink ref="D52" r:id="rId54" xr:uid="{87FA3EF4-9DD3-4F2E-8A17-D43CAC5E0FA8}"/>
+    <hyperlink ref="D53" r:id="rId55" xr:uid="{896679C3-0779-4141-990D-A15BB0BB031E}"/>
+    <hyperlink ref="D54" r:id="rId56" xr:uid="{87C6F2D0-3CFE-4C77-8960-A12C496D7394}"/>
+    <hyperlink ref="D55" r:id="rId57" xr:uid="{4B7EAE79-868F-4F85-8493-DB71E1B6717F}"/>
+    <hyperlink ref="F55" r:id="rId58" xr:uid="{ADE84154-F4EE-47E2-8A57-09BEC271F978}"/>
+    <hyperlink ref="D56" r:id="rId59" xr:uid="{655CC3F0-614B-49FE-B5E6-1F31A254E339}"/>
+    <hyperlink ref="F56" r:id="rId60" xr:uid="{CDBC077A-DC21-45C6-8AD0-DBCAF0E10694}"/>
+    <hyperlink ref="D57" r:id="rId61" xr:uid="{F1E167C4-5A5F-4850-A03D-95A6C29D87DE}"/>
+    <hyperlink ref="F57" r:id="rId62" xr:uid="{7198726F-1F14-40D2-A960-C7DF038D8639}"/>
+    <hyperlink ref="D58" r:id="rId63" xr:uid="{5C9E97E5-5EBB-4DFB-BE58-2AB3AE278691}"/>
+    <hyperlink ref="F58" r:id="rId64" xr:uid="{4A76750A-0F0E-407E-88C3-827C829CFA37}"/>
+    <hyperlink ref="D59" r:id="rId65" xr:uid="{B28EDBB0-C6CD-4B24-8866-3540EDD5E296}"/>
+    <hyperlink ref="F59" r:id="rId66" xr:uid="{5A888317-484D-4122-9A24-FF719129CBFD}"/>
+    <hyperlink ref="D60" r:id="rId67" xr:uid="{FB54205A-D412-4308-8365-4DE8596E8937}"/>
+    <hyperlink ref="F60" r:id="rId68" xr:uid="{4164942B-6DB2-4F66-B5D5-F8156ED4E2D6}"/>
+    <hyperlink ref="D61" r:id="rId69" xr:uid="{B2AE0F1A-BA42-4AD3-B285-F42B7259E4FC}"/>
+    <hyperlink ref="F61" r:id="rId70" xr:uid="{70791B82-23C0-4E3C-AE71-BB5C00A0BCEF}"/>
+    <hyperlink ref="D62" r:id="rId71" xr:uid="{5F0AD0C3-2BB4-4A86-A36C-6D17E4E5A416}"/>
+    <hyperlink ref="F62" r:id="rId72" xr:uid="{F66EB44A-1F4D-447B-B88A-8F7F073044C9}"/>
+    <hyperlink ref="D63" r:id="rId73" xr:uid="{975BFFC8-8079-4E3D-9898-AD9ECE38628D}"/>
+    <hyperlink ref="F63" r:id="rId74" xr:uid="{6B31BF36-66E5-4010-A807-AA456030E381}"/>
+    <hyperlink ref="D64" r:id="rId75" xr:uid="{CFC9CC61-2178-407C-B591-E1681E2D9C27}"/>
+    <hyperlink ref="F64" r:id="rId76" xr:uid="{67FEA0E6-7D97-4F24-9D0A-4E387E3747B2}"/>
+    <hyperlink ref="D65" r:id="rId77" xr:uid="{B462D26A-070A-4135-96F3-A86D241916C3}"/>
+    <hyperlink ref="F65" r:id="rId78" xr:uid="{C9DD4508-CD4F-4746-A4F6-83A49E4CFBF7}"/>
+    <hyperlink ref="D66" r:id="rId79" xr:uid="{32A7D8C7-5CAA-4B81-B8E7-CF7F7A8D8E6C}"/>
+    <hyperlink ref="F66" r:id="rId80" xr:uid="{07532909-CBB1-4D30-9C0A-FE67605D0605}"/>
+    <hyperlink ref="D67" r:id="rId81" xr:uid="{FB21B587-CA60-4C2D-81A3-0AE359871C78}"/>
+    <hyperlink ref="F67" r:id="rId82" xr:uid="{EC30A8A7-5182-4DE5-8221-A1E8FCEC713B}"/>
+    <hyperlink ref="D68" r:id="rId83" xr:uid="{777CB24E-7FFB-452E-BB52-1ACFA78CB26E}"/>
+    <hyperlink ref="F68" r:id="rId84" xr:uid="{A93F73B6-C5E7-4AF1-B24A-BB6752FC5841}"/>
+    <hyperlink ref="D69" r:id="rId85" xr:uid="{03754172-242E-40A5-B68C-4FC6DB94637B}"/>
+    <hyperlink ref="F69" r:id="rId86" xr:uid="{DFC43356-C64A-4287-8FFE-7E60A3044534}"/>
+    <hyperlink ref="D70" r:id="rId87" xr:uid="{35B221F8-8928-41DB-A384-FDC8663B5452}"/>
+    <hyperlink ref="F70" r:id="rId88" xr:uid="{623C58DD-ECBE-48B4-BD36-EDF8C1A92CEA}"/>
+    <hyperlink ref="D71" r:id="rId89" xr:uid="{F659BC3C-A08B-4A1A-ADB5-66B683DEF79C}"/>
+    <hyperlink ref="F71" r:id="rId90" xr:uid="{0B1D0A81-42CD-4D1B-A0A4-8AB7D4C63A71}"/>
+    <hyperlink ref="D72" r:id="rId91" xr:uid="{5806733E-1C3B-4C76-9E52-D9B7887C3B00}"/>
+    <hyperlink ref="F72" r:id="rId92" xr:uid="{47D336C5-00A8-4C81-884D-51186C757463}"/>
+    <hyperlink ref="D73" r:id="rId93" xr:uid="{8E65BFC0-3BE4-4AE2-96C6-E6348037316A}"/>
+    <hyperlink ref="F73" r:id="rId94" xr:uid="{B40FCA6C-EA63-4E1F-9BB6-7EF9590DB8E3}"/>
+    <hyperlink ref="D74" r:id="rId95" xr:uid="{D84B9B70-365D-4CDB-A314-F79A3CA4E77D}"/>
+    <hyperlink ref="F74" r:id="rId96" xr:uid="{80D8A644-70B5-4FDF-9BAD-39E0C8DB062A}"/>
+    <hyperlink ref="D75" r:id="rId97" xr:uid="{558E05B9-F85B-4477-BA67-CA43A8BA4B47}"/>
+    <hyperlink ref="F75" r:id="rId98" xr:uid="{23CA5105-449A-4E83-828B-1A1E18DE72C8}"/>
+    <hyperlink ref="D76" r:id="rId99" xr:uid="{CB378F21-32BD-4E04-8E7B-0FC693DA6144}"/>
+    <hyperlink ref="F76" r:id="rId100" xr:uid="{EAF9CC6D-8041-49A4-8072-99A78B35497F}"/>
+    <hyperlink ref="D77" r:id="rId101" xr:uid="{29256316-C74C-4AFC-BC63-48D31648C643}"/>
+    <hyperlink ref="F77" r:id="rId102" xr:uid="{22E5CC41-A064-4435-A9B1-4CACCBBC4A9C}"/>
+    <hyperlink ref="D78" r:id="rId103" xr:uid="{640EB0F0-ABEB-493A-BBA4-5D0F43ACB350}"/>
+    <hyperlink ref="F78" r:id="rId104" xr:uid="{94D73BE5-0DA0-4BCD-9532-493EB01A6CF8}"/>
+    <hyperlink ref="D79" r:id="rId105" xr:uid="{6ACC607E-4E7B-43E1-8F42-187761BD74A6}"/>
+    <hyperlink ref="F79" r:id="rId106" xr:uid="{EC4852F1-3AEC-44E9-B1B5-303B78ADBBA1}"/>
+    <hyperlink ref="D80" r:id="rId107" xr:uid="{969D087A-975C-4FED-8639-1D1644CAE54C}"/>
+    <hyperlink ref="F80" r:id="rId108" xr:uid="{0C0CDFF5-F423-4F73-A689-37CE315FBF4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF5105-7613-46DB-885E-F439B0A40132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FA3522-72A2-4B3D-B30E-D221E4A0F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>Agent</t>
   </si>
@@ -297,6 +297,219 @@
   </si>
   <si>
     <t>RITM0434593</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Juan Carlos DIOSES</t>
+  </si>
+  <si>
+    <t>SCTASK0887406</t>
+  </si>
+  <si>
+    <t>Alexandra DE TORNACO</t>
+  </si>
+  <si>
+    <t>SCTASK0784120, SCTASK0784119</t>
+  </si>
+  <si>
+    <t>Aneta KORZENIECKA</t>
+  </si>
+  <si>
+    <t>SCTASK0880081</t>
+  </si>
+  <si>
+    <t>Natalia Maria VALENCIA AGUIRRE</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Georgiana SANDU</t>
+  </si>
+  <si>
+    <t>Klaudia ARBETOVA</t>
+  </si>
+  <si>
+    <t>Gabriel Stanislav Vladimir LITERA</t>
+  </si>
+  <si>
+    <t>Sandrina MARCUZZO</t>
+  </si>
+  <si>
+    <t>Marika SULANKO</t>
+  </si>
+  <si>
+    <t>Anastasia COUCOURATOS</t>
+  </si>
+  <si>
+    <t>Liselotte JENSEN</t>
+  </si>
+  <si>
+    <t>Lucie Agnès Marie Olga MAISTRELLI</t>
+  </si>
+  <si>
+    <t>Kristýna MAŤÁTKOVÁ</t>
+  </si>
+  <si>
+    <t>Ana RADOČAJ</t>
+  </si>
+  <si>
+    <t>Angelika KISS</t>
+  </si>
+  <si>
+    <t>Maria Nazareth ECHART ORUS</t>
+  </si>
+  <si>
+    <t>Krista DANKERE</t>
+  </si>
+  <si>
+    <t>Maja SABOL</t>
+  </si>
+  <si>
+    <t>Cristina SANCHEZ VILLA</t>
+  </si>
+  <si>
+    <t>Wojciech KUZMA</t>
+  </si>
+  <si>
+    <t>Tajana LJUBIČIĆ</t>
+  </si>
+  <si>
+    <t>Luc JEUNESSE</t>
+  </si>
+  <si>
+    <t>Maria Antoaneta NEAG</t>
+  </si>
+  <si>
+    <t>Kateřina HEROUTOVÁ</t>
+  </si>
+  <si>
+    <t>Igor DEQUECKER</t>
+  </si>
+  <si>
+    <t>Christos PAPAGIANNIS</t>
+  </si>
+  <si>
+    <t>Nicolas DORGERET</t>
+  </si>
+  <si>
+    <t>Ramune TAMASAUSKAITE</t>
+  </si>
+  <si>
+    <t>Cesar Augusto CASTELLO MORENO</t>
+  </si>
+  <si>
+    <t>Alina Leandra Ó RIADA</t>
+  </si>
+  <si>
+    <t>Francesco BARCHIELLI</t>
+  </si>
+  <si>
+    <t>Anna ARESU</t>
+  </si>
+  <si>
+    <t>Stephanie HONNEFELDER</t>
+  </si>
+  <si>
+    <t>Philine SCHOLZE</t>
+  </si>
+  <si>
+    <t>Ariane DEBYSER</t>
+  </si>
+  <si>
+    <t>Rachid AHAJJAM</t>
+  </si>
+  <si>
+    <t>Gianna GRIGÒ</t>
+  </si>
+  <si>
+    <t>Fabiola VALENTINI</t>
+  </si>
+  <si>
+    <t>Maria TOADER</t>
+  </si>
+  <si>
+    <t>Samuel DE LEMOS PEIXOTO</t>
+  </si>
+  <si>
+    <t>Elise HANCOTTE</t>
+  </si>
+  <si>
+    <t>Ellen Sarah VAN NIEUWENHUYZE</t>
+  </si>
+  <si>
+    <t>Anastasia MITRONATSIOU</t>
+  </si>
+  <si>
+    <t>5c7518931beb241018d65398624bcb08</t>
+  </si>
+  <si>
+    <t>David SCHWANDER</t>
+  </si>
+  <si>
+    <t>Karin SAUERTEIG</t>
+  </si>
+  <si>
+    <t>Barbara KRAFT</t>
+  </si>
+  <si>
+    <t>Virginie REMACLE</t>
+  </si>
+  <si>
+    <t>Ana SÁEZ-BENITO CAUVILLA</t>
+  </si>
+  <si>
+    <t>Bettina BLASIG</t>
+  </si>
+  <si>
+    <t>Cedric Franz K GOOR</t>
+  </si>
+  <si>
+    <t>Maria-teresa GONZALEZ CABALLERO</t>
+  </si>
+  <si>
+    <t>Tania DE POORTER</t>
+  </si>
+  <si>
+    <t>Dora Cristina BARREIRA RAMOS</t>
+  </si>
+  <si>
+    <t>Devrim ATES</t>
+  </si>
+  <si>
+    <t>Satu Simona POUTANEN</t>
+  </si>
+  <si>
+    <t>Lina BARSTYTE</t>
+  </si>
+  <si>
+    <t>Johannes LITZELMANN</t>
+  </si>
+  <si>
+    <t>Michael Alexander SPEISER</t>
+  </si>
+  <si>
+    <t>Susan NITSCHE</t>
+  </si>
+  <si>
+    <t>Giulia PASCUZZI</t>
+  </si>
+  <si>
+    <t>Léa Lucie Léontine SAUBION</t>
+  </si>
+  <si>
+    <t>Noémie Kerfalie Helena Jane-Nolwe NGANGA</t>
+  </si>
+  <si>
+    <t>Jauram REISNER</t>
+  </si>
+  <si>
+    <t>Laura PROIETTI</t>
+  </si>
+  <si>
+    <t>New EP User</t>
   </si>
 </sst>
 </file>
@@ -699,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,428 +973,882 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
       <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
       <c r="D36" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
       <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
       <c r="D47" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
       <c r="D48" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
       <c r="D49" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
       <c r="D50" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
       <c r="D51" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
       <c r="D52" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
       <c r="D53" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
       <c r="D54" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
       <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
       <c r="D56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
       <c r="D57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
       <c r="D58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
       <c r="D60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
       <c r="D61" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
       <c r="D62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
       <c r="D63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
       <c r="D64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
       <c r="D65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
       <c r="D66" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
       <c r="D67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
       <c r="D68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
       <c r="D69" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
       <c r="D70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
       <c r="D71" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
       <c r="D72" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
       <c r="D73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
       <c r="D74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
       <c r="D75" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
       <c r="D76" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
       <c r="D77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="D78" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
       <c r="D79" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FA3522-72A2-4B3D-B30E-D221E4A0F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E22DE50-91F2-41F0-97DD-6A628B80F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
   <si>
     <t>Agent</t>
   </si>
@@ -299,12 +299,12 @@
     <t>RITM0434593</t>
   </si>
   <si>
+    <t>Juan Carlos DIOSES</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Juan Carlos DIOSES</t>
-  </si>
-  <si>
     <t>SCTASK0887406</t>
   </si>
   <si>
@@ -320,159 +320,12 @@
     <t>SCTASK0880081</t>
   </si>
   <si>
-    <t>Natalia Maria VALENCIA AGUIRRE</t>
+    <t>Tania DE POORTER</t>
   </si>
   <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Georgiana SANDU</t>
-  </si>
-  <si>
-    <t>Klaudia ARBETOVA</t>
-  </si>
-  <si>
-    <t>Gabriel Stanislav Vladimir LITERA</t>
-  </si>
-  <si>
-    <t>Sandrina MARCUZZO</t>
-  </si>
-  <si>
-    <t>Marika SULANKO</t>
-  </si>
-  <si>
-    <t>Anastasia COUCOURATOS</t>
-  </si>
-  <si>
-    <t>Liselotte JENSEN</t>
-  </si>
-  <si>
-    <t>Lucie Agnès Marie Olga MAISTRELLI</t>
-  </si>
-  <si>
-    <t>Kristýna MAŤÁTKOVÁ</t>
-  </si>
-  <si>
-    <t>Ana RADOČAJ</t>
-  </si>
-  <si>
-    <t>Angelika KISS</t>
-  </si>
-  <si>
-    <t>Maria Nazareth ECHART ORUS</t>
-  </si>
-  <si>
-    <t>Krista DANKERE</t>
-  </si>
-  <si>
-    <t>Maja SABOL</t>
-  </si>
-  <si>
-    <t>Cristina SANCHEZ VILLA</t>
-  </si>
-  <si>
-    <t>Wojciech KUZMA</t>
-  </si>
-  <si>
-    <t>Tajana LJUBIČIĆ</t>
-  </si>
-  <si>
-    <t>Luc JEUNESSE</t>
-  </si>
-  <si>
-    <t>Maria Antoaneta NEAG</t>
-  </si>
-  <si>
-    <t>Kateřina HEROUTOVÁ</t>
-  </si>
-  <si>
-    <t>Igor DEQUECKER</t>
-  </si>
-  <si>
-    <t>Christos PAPAGIANNIS</t>
-  </si>
-  <si>
-    <t>Nicolas DORGERET</t>
-  </si>
-  <si>
-    <t>Ramune TAMASAUSKAITE</t>
-  </si>
-  <si>
-    <t>Cesar Augusto CASTELLO MORENO</t>
-  </si>
-  <si>
-    <t>Alina Leandra Ó RIADA</t>
-  </si>
-  <si>
-    <t>Francesco BARCHIELLI</t>
-  </si>
-  <si>
-    <t>Anna ARESU</t>
-  </si>
-  <si>
-    <t>Stephanie HONNEFELDER</t>
-  </si>
-  <si>
-    <t>Philine SCHOLZE</t>
-  </si>
-  <si>
-    <t>Ariane DEBYSER</t>
-  </si>
-  <si>
-    <t>Rachid AHAJJAM</t>
-  </si>
-  <si>
-    <t>Gianna GRIGÒ</t>
-  </si>
-  <si>
-    <t>Fabiola VALENTINI</t>
-  </si>
-  <si>
-    <t>Maria TOADER</t>
-  </si>
-  <si>
-    <t>Samuel DE LEMOS PEIXOTO</t>
-  </si>
-  <si>
-    <t>Elise HANCOTTE</t>
-  </si>
-  <si>
-    <t>Ellen Sarah VAN NIEUWENHUYZE</t>
-  </si>
-  <si>
-    <t>Anastasia MITRONATSIOU</t>
-  </si>
-  <si>
-    <t>5c7518931beb241018d65398624bcb08</t>
-  </si>
-  <si>
-    <t>David SCHWANDER</t>
-  </si>
-  <si>
-    <t>Karin SAUERTEIG</t>
-  </si>
-  <si>
-    <t>Barbara KRAFT</t>
-  </si>
-  <si>
-    <t>Virginie REMACLE</t>
-  </si>
-  <si>
-    <t>Ana SÁEZ-BENITO CAUVILLA</t>
-  </si>
-  <si>
-    <t>Bettina BLASIG</t>
-  </si>
-  <si>
-    <t>Cedric Franz K GOOR</t>
-  </si>
-  <si>
-    <t>Maria-teresa GONZALEZ CABALLERO</t>
-  </si>
-  <si>
-    <t>Tania DE POORTER</t>
-  </si>
-  <si>
     <t>Dora Cristina BARREIRA RAMOS</t>
   </si>
   <si>
@@ -507,9 +360,6 @@
   </si>
   <si>
     <t>Laura PROIETTI</t>
-  </si>
-  <si>
-    <t>New EP User</t>
   </si>
 </sst>
 </file>
@@ -913,7 +763,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B2:B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,13 +824,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>89</v>
@@ -994,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>91</v>
@@ -1008,565 +858,265 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>116</v>
-      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>127</v>
-      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>130</v>
-      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>132</v>
-      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
       <c r="D49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>139</v>
-      </c>
       <c r="D50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
       <c r="D51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E51" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>141</v>
-      </c>
       <c r="D52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E52" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
       <c r="D53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E53" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>143</v>
-      </c>
       <c r="D54" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>68</v>
@@ -1577,7 +1127,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>68</v>
@@ -1588,7 +1138,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>69</v>
@@ -1599,7 +1149,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>69</v>
@@ -1610,7 +1160,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>70</v>
@@ -1621,7 +1171,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>70</v>
@@ -1632,7 +1182,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>71</v>
@@ -1643,7 +1193,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>71</v>
@@ -1654,7 +1204,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>72</v>
@@ -1665,7 +1215,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>73</v>
@@ -1676,7 +1226,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>74</v>
@@ -1687,7 +1237,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>75</v>
@@ -1698,7 +1248,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>76</v>
@@ -1709,7 +1259,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>77</v>
@@ -1720,7 +1270,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>78</v>
@@ -1731,7 +1281,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>79</v>
@@ -1742,7 +1292,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>80</v>
@@ -1753,7 +1303,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>81</v>
@@ -1764,7 +1314,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>82</v>
@@ -1775,7 +1325,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>83</v>
@@ -1786,7 +1336,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>83</v>
@@ -1797,29 +1347,29 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>85</v>
@@ -1830,7 +1380,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>86</v>
@@ -1841,7 +1391,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>86</v>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E22DE50-91F2-41F0-97DD-6A628B80F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49081E-229B-42CC-AEF3-9700DAE4D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="196">
   <si>
     <t>Agent</t>
   </si>
@@ -305,6 +305,48 @@
     <t>Pending</t>
   </si>
   <si>
+    <t>Tania DE POORTER</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Dora Cristina BARREIRA RAMOS</t>
+  </si>
+  <si>
+    <t>Devrim ATES</t>
+  </si>
+  <si>
+    <t>Satu Simona POUTANEN</t>
+  </si>
+  <si>
+    <t>Lina BARSTYTE</t>
+  </si>
+  <si>
+    <t>Johannes LITZELMANN</t>
+  </si>
+  <si>
+    <t>Michael Alexander SPEISER</t>
+  </si>
+  <si>
+    <t>Susan NITSCHE</t>
+  </si>
+  <si>
+    <t>Giulia PASCUZZI</t>
+  </si>
+  <si>
+    <t>Léa Lucie Léontine SAUBION</t>
+  </si>
+  <si>
+    <t>Noémie Kerfalie Helena Jane-Nolwe NGANGA</t>
+  </si>
+  <si>
+    <t>Jauram REISNER</t>
+  </si>
+  <si>
+    <t>Laura PROIETTI</t>
+  </si>
+  <si>
     <t>SCTASK0887406</t>
   </si>
   <si>
@@ -320,46 +362,268 @@
     <t>SCTASK0880081</t>
   </si>
   <si>
-    <t>Tania DE POORTER</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Dora Cristina BARREIRA RAMOS</t>
-  </si>
-  <si>
-    <t>Devrim ATES</t>
-  </si>
-  <si>
-    <t>Satu Simona POUTANEN</t>
-  </si>
-  <si>
-    <t>Lina BARSTYTE</t>
-  </si>
-  <si>
-    <t>Johannes LITZELMANN</t>
-  </si>
-  <si>
-    <t>Michael Alexander SPEISER</t>
-  </si>
-  <si>
-    <t>Susan NITSCHE</t>
-  </si>
-  <si>
-    <t>Giulia PASCUZZI</t>
-  </si>
-  <si>
-    <t>Léa Lucie Léontine SAUBION</t>
-  </si>
-  <si>
-    <t>Noémie Kerfalie Helena Jane-Nolwe NGANGA</t>
-  </si>
-  <si>
-    <t>Jauram REISNER</t>
-  </si>
-  <si>
-    <t>Laura PROIETTI</t>
+    <t>Natalia Maria VALENCIA AGUIRRE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425371</t>
+  </si>
+  <si>
+    <t>Georgiana SANDU</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2334714</t>
+  </si>
+  <si>
+    <t>Klaudia ARBETOVA</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421355</t>
+  </si>
+  <si>
+    <t>Gabriel Stanislav Vladimir LITERA</t>
+  </si>
+  <si>
+    <t>Sandrina MARCUZZO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425125</t>
+  </si>
+  <si>
+    <t>Marika SULANKO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420461</t>
+  </si>
+  <si>
+    <t>Anastasia COUCOURATOS</t>
+  </si>
+  <si>
+    <t>02PI20140917135</t>
+  </si>
+  <si>
+    <t>Liselotte JENSEN</t>
+  </si>
+  <si>
+    <t>Lucie Agnès Marie Olga MAISTRELLI</t>
+  </si>
+  <si>
+    <t>Kristýna MAŤÁTKOVÁ</t>
+  </si>
+  <si>
+    <t>Ana RADOČAJ</t>
+  </si>
+  <si>
+    <t>Angelika KISS</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420747</t>
+  </si>
+  <si>
+    <t>Maria Nazareth ECHART ORUS</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2333965</t>
+  </si>
+  <si>
+    <t>Krista DANKERE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2036708</t>
+  </si>
+  <si>
+    <t>Maja SABOL</t>
+  </si>
+  <si>
+    <t>Cristina SANCHEZ VILLA</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2332647</t>
+  </si>
+  <si>
+    <t>Wojciech KUZMA</t>
+  </si>
+  <si>
+    <t>Tajana LJUBIČIĆ</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2334472</t>
+  </si>
+  <si>
+    <t>Luc JEUNESSE</t>
+  </si>
+  <si>
+    <t>02PI20242843962</t>
+  </si>
+  <si>
+    <t>Maria Antoaneta NEAG</t>
+  </si>
+  <si>
+    <t>02PI20242705674</t>
+  </si>
+  <si>
+    <t>Kateřina HEROUTOVÁ</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2420940</t>
+  </si>
+  <si>
+    <t>Igor DEQUECKER</t>
+  </si>
+  <si>
+    <t>02PI20191989578</t>
+  </si>
+  <si>
+    <t>Christos PAPAGIANNIS</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423978</t>
+  </si>
+  <si>
+    <t>Nicolas DORGERET</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2508215</t>
+  </si>
+  <si>
+    <t>Ramune TAMASAUSKAITE</t>
+  </si>
+  <si>
+    <t>02PI20233397147</t>
+  </si>
+  <si>
+    <t>Cesar Augusto CASTELLO MORENO</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2426375</t>
+  </si>
+  <si>
+    <t>Alina Leandra Ó RIADA</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421366</t>
+  </si>
+  <si>
+    <t>Francesco BARCHIELLI</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423602</t>
+  </si>
+  <si>
+    <t>Anna ARESU</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425910</t>
+  </si>
+  <si>
+    <t>Stephanie HONNEFELDER</t>
+  </si>
+  <si>
+    <t>02PI20250821684</t>
+  </si>
+  <si>
+    <t>Philine SCHOLZE</t>
+  </si>
+  <si>
+    <t>02PI20250819606</t>
+  </si>
+  <si>
+    <t>Ariane DEBYSER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425050</t>
+  </si>
+  <si>
+    <t>Rachid AHAJJAM</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421304</t>
+  </si>
+  <si>
+    <t>Gianna GRIGÒ</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421392</t>
+  </si>
+  <si>
+    <t>Fabiola VALENTINI</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423870</t>
+  </si>
+  <si>
+    <t>Maria TOADER</t>
+  </si>
+  <si>
+    <t>02PI20241996977</t>
+  </si>
+  <si>
+    <t>Samuel DE LEMOS PEIXOTO</t>
+  </si>
+  <si>
+    <t>02PI20231287180</t>
+  </si>
+  <si>
+    <t>Elise HANCOTTE</t>
+  </si>
+  <si>
+    <t>Ellen Sarah VAN NIEUWENHUYZE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2421379</t>
+  </si>
+  <si>
+    <t>Anastasia MITRONATSIOU</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425798</t>
+  </si>
+  <si>
+    <t>5c7518931beb241018d65398624bcb08</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425955</t>
+  </si>
+  <si>
+    <t>David SCHWANDER</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425390</t>
+  </si>
+  <si>
+    <t>Karin SAUERTEIG</t>
+  </si>
+  <si>
+    <t>02PI20200227608</t>
+  </si>
+  <si>
+    <t>Barbara KRAFT</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2332364</t>
+  </si>
+  <si>
+    <t>Virginie REMACLE</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2426486</t>
+  </si>
+  <si>
+    <t>Ana SÁEZ-BENITO CAUVILLA</t>
+  </si>
+  <si>
+    <t>Bettina BLASIG</t>
+  </si>
+  <si>
+    <t>02PI20210751648</t>
+  </si>
+  <si>
+    <t>Cedric Franz K GOOR</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2115651</t>
+  </si>
+  <si>
+    <t>Maria-teresa GONZALEZ CABALLERO</t>
   </si>
 </sst>
 </file>
@@ -763,7 +1027,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,12 +1097,12 @@
         <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -847,12 +1111,12 @@
         <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -861,323 +1125,740 @@
         <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
       <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
       <c r="D36" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
       <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
       <c r="D47" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>185</v>
+      </c>
       <c r="D48" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
       <c r="D49" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
       <c r="D50" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
       <c r="D51" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
       <c r="D52" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>194</v>
+      </c>
       <c r="D53" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
       <c r="D54" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
@@ -1188,7 +1869,7 @@
         <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
@@ -1199,7 +1880,7 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
@@ -1210,95 +1891,95 @@
         <v>72</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
@@ -1309,40 +1990,40 @@
         <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
@@ -1375,7 +2056,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
@@ -1386,7 +2067,7 @@
         <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
@@ -1397,7 +2078,7 @@
         <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49081E-229B-42CC-AEF3-9700DAE4D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4731CD-D982-4597-9E23-879E0567CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="199">
   <si>
     <t>Agent</t>
   </si>
@@ -624,6 +624,15 @@
   </si>
   <si>
     <t>Maria-teresa GONZALEZ CABALLERO</t>
+  </si>
+  <si>
+    <t>Checked-Out</t>
+  </si>
+  <si>
+    <t>Checked-In</t>
+  </si>
+  <si>
+    <t>SCTASK0765919</t>
   </si>
 </sst>
 </file>
@@ -681,13 +690,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1099,6 +1109,12 @@
       <c r="F2" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="L2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="4">
+        <v>46074.001875000002</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -1905,7 +1921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>94</v>
       </c>
@@ -1916,7 +1932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>95</v>
       </c>
@@ -1927,7 +1943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>96</v>
       </c>
@@ -1938,7 +1954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>97</v>
       </c>
@@ -1949,7 +1965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>98</v>
       </c>
@@ -1960,7 +1976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>99</v>
       </c>
@@ -1971,7 +1987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>100</v>
       </c>
@@ -1982,7 +1998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>87</v>
       </c>
@@ -1993,7 +2009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>101</v>
       </c>
@@ -2004,7 +2020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>102</v>
       </c>
@@ -2015,7 +2031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>102</v>
       </c>
@@ -2026,7 +2042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>87</v>
       </c>
@@ -2036,8 +2052,17 @@
       <c r="E76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>198</v>
+      </c>
+      <c r="L76" t="s">
+        <v>197</v>
+      </c>
+      <c r="M76" s="4">
+        <v>46074.00236111111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>87</v>
       </c>
@@ -2048,7 +2073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>87</v>
       </c>
@@ -2059,7 +2084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>87</v>
       </c>
@@ -2070,7 +2095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>87</v>
       </c>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C062791-020A-4786-B69E-6EE5A0254EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8247E-E031-4B9E-81D1-DFF98B76E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Agent</t>
   </si>
@@ -191,10 +191,13 @@
     <t>Laura PROIETTI</t>
   </si>
   <si>
-    <t>New EP User</t>
-  </si>
-  <si>
     <t>SCTASK0765919</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2505542</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423960</t>
   </si>
 </sst>
 </file>
@@ -779,6 +782,9 @@
       <c r="B12" t="s">
         <v>44</v>
       </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
@@ -856,6 +862,9 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
@@ -867,6 +876,9 @@
       <c r="B20" t="s">
         <v>50</v>
       </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
@@ -876,7 +888,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
@@ -885,13 +897,13 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
@@ -900,12 +912,12 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -916,7 +928,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>33</v>
@@ -927,7 +939,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>33</v>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8247E-E031-4B9E-81D1-DFF98B76E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DE5E1-C49E-4573-8D34-2B6BA81F5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Agent</t>
   </si>
@@ -92,39 +92,6 @@
     <t>RITM0400334</t>
   </si>
   <si>
-    <t>RITM0429435</t>
-  </si>
-  <si>
-    <t>RITM0430321</t>
-  </si>
-  <si>
-    <t>RITM0430778</t>
-  </si>
-  <si>
-    <t>RITM0400091</t>
-  </si>
-  <si>
-    <t>RITM0400088</t>
-  </si>
-  <si>
-    <t>RITM0420978</t>
-  </si>
-  <si>
-    <t>RITM0405042</t>
-  </si>
-  <si>
-    <t>RITM0433027</t>
-  </si>
-  <si>
-    <t>RITM0433109</t>
-  </si>
-  <si>
-    <t>RITM0433132</t>
-  </si>
-  <si>
-    <t>RITM0433154</t>
-  </si>
-  <si>
     <t>RITM0433331</t>
   </si>
   <si>
@@ -161,30 +128,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Satu Simona POUTANEN</t>
-  </si>
-  <si>
-    <t>Lina BARSTYTE</t>
-  </si>
-  <si>
-    <t>Johannes LITZELMANN</t>
-  </si>
-  <si>
-    <t>Michael Alexander SPEISER</t>
-  </si>
-  <si>
-    <t>Susan NITSCHE</t>
-  </si>
-  <si>
-    <t>Giulia PASCUZZI</t>
-  </si>
-  <si>
-    <t>Léa Lucie Léontine SAUBION</t>
-  </si>
-  <si>
-    <t>Noémie Kerfalie Helena Jane-Nolwe NGANGA</t>
-  </si>
-  <si>
     <t>Jauram REISNER</t>
   </si>
   <si>
@@ -192,12 +135,6 @@
   </si>
   <si>
     <t>SCTASK0765919</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2505542</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2423960</t>
   </si>
 </sst>
 </file>
@@ -255,14 +192,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="B26" sqref="B2:B26"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +548,8 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="18.08984375" customWidth="1"/>
     <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="14" max="14" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -663,289 +601,146 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -954,26 +749,14 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{9990B10D-1867-43D9-BA0D-47C428B6CBCD}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{B28EDBB0-C6CD-4B24-8866-3540EDD5E296}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{FB54205A-D412-4308-8365-4DE8596E8937}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{B2AE0F1A-BA42-4AD3-B285-F42B7259E4FC}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{5F0AD0C3-2BB4-4A86-A36C-6D17E4E5A416}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{975BFFC8-8079-4E3D-9898-AD9ECE38628D}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{CFC9CC61-2178-407C-B591-E1681E2D9C27}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{B462D26A-070A-4135-96F3-A86D241916C3}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{32A7D8C7-5CAA-4B81-B8E7-CF7F7A8D8E6C}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{FB21B587-CA60-4C2D-81A3-0AE359871C78}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{777CB24E-7FFB-452E-BB52-1ACFA78CB26E}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{03754172-242E-40A5-B68C-4FC6DB94637B}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{35B221F8-8928-41DB-A384-FDC8663B5452}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{F659BC3C-A08B-4A1A-ADB5-66B683DEF79C}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{5806733E-1C3B-4C76-9E52-D9B7887C3B00}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{8E65BFC0-3BE4-4AE2-96C6-E6348037316A}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{D84B9B70-365D-4CDB-A314-F79A3CA4E77D}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{558E05B9-F85B-4477-BA67-CA43A8BA4B47}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{CB378F21-32BD-4E04-8E7B-0FC693DA6144}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{29256316-C74C-4AFC-BC63-48D31648C643}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{640EB0F0-ABEB-493A-BBA4-5D0F43ACB350}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{6ACC607E-4E7B-43E1-8F42-187761BD74A6}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{969D087A-975C-4FED-8639-1D1644CAE54C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{8E65BFC0-3BE4-4AE2-96C6-E6348037316A}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{D84B9B70-365D-4CDB-A314-F79A3CA4E77D}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{558E05B9-F85B-4477-BA67-CA43A8BA4B47}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{CB378F21-32BD-4E04-8E7B-0FC693DA6144}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{29256316-C74C-4AFC-BC63-48D31648C643}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{640EB0F0-ABEB-493A-BBA4-5D0F43ACB350}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{6ACC607E-4E7B-43E1-8F42-187761BD74A6}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{969D087A-975C-4FED-8639-1D1644CAE54C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DE5E1-C49E-4573-8D34-2B6BA81F5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D691B3-B9C9-4C78-BB37-A363B4DD5631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Agent</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>SCTASK0765919</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425474</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2423960</t>
   </si>
 </sst>
 </file>
@@ -631,6 +637,9 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
@@ -642,6 +651,9 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
@@ -664,6 +676,9 @@
       <c r="B7" t="s">
         <v>31</v>
       </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
@@ -674,6 +689,9 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D691B3-B9C9-4C78-BB37-A363B4DD5631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1968690F-5546-4B88-AB63-405CF63D92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1968690F-5546-4B88-AB63-405CF63D92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BEC3C-65AE-460B-BE67-2A91D8BA1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Agent</t>
   </si>
@@ -116,31 +116,28 @@
     <t>SCTASK0887406</t>
   </si>
   <si>
+    <t>SCTASK0784120, SCTASK0784119</t>
+  </si>
+  <si>
+    <t>Devrim ATES</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>SCTASK0765919</t>
+  </si>
+  <si>
+    <t>MUSTBRUN2425474</t>
+  </si>
+  <si>
     <t>Alexandra DE TORNACO</t>
   </si>
   <si>
-    <t>SCTASK0784120, SCTASK0784119</t>
-  </si>
-  <si>
-    <t>Devrim ATES</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Jauram REISNER</t>
   </si>
   <si>
     <t>Laura PROIETTI</t>
-  </si>
-  <si>
-    <t>SCTASK0765919</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2425474</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2423960</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="C15" sqref="A6:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +618,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -630,74 +627,68 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -711,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -725,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -736,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -747,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -758,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BEC3C-65AE-460B-BE67-2A91D8BA1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFB9AB-FB6B-4651-B584-A61EB84B219B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
   <sheets>
     <sheet name="BRU" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Agent</t>
   </si>
@@ -138,6 +138,33 @@
   </si>
   <si>
     <t>Laura PROIETTI</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0496748_Juan Carlos DIOSES (2).pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0405052_Alexandra DE TORNACO.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0400334_Devrim ATES.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0433331_Jauram REISNER.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0420972_Laura PROIETTI.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0434588_Juan Carlos DIOSES.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0434592_Juan Carlos DIOSES.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0434593_Juan Carlos DIOSES.pdf</t>
   </si>
 </sst>
 </file>
@@ -615,6 +642,12 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -629,6 +662,12 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -643,6 +682,12 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -657,6 +702,12 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -668,6 +719,12 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -679,6 +736,12 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -690,6 +753,12 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -704,6 +773,12 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -718,6 +793,12 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -729,6 +810,12 @@
       <c r="E11" t="s">
         <v>28</v>
       </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -740,6 +827,12 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -750,6 +843,12 @@
       </c>
       <c r="E13" t="s">
         <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Schuman List.xlsx
+++ b/Schuman List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1\Documents\Schuman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFB9AB-FB6B-4651-B584-A61EB84B219B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA654B-42C6-4B4A-83F5-B1458AA9509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{2FE17FE1-ABF7-4DC1-A8B0-257EE915A712}"/>
   </bookViews>
   <sheets>
     <sheet name="BRU" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Agent</t>
   </si>
@@ -98,73 +98,40 @@
     <t>RITM0420972</t>
   </si>
   <si>
-    <t>RITM0434588</t>
-  </si>
-  <si>
-    <t>RITM0434592</t>
-  </si>
-  <si>
     <t>RITM0434593</t>
   </si>
   <si>
     <t>Juan Carlos DIOSES</t>
   </si>
   <si>
+    <t>MUSTBRUN2424012</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Alexandra DE TORNACO</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
+    <t>SCTASK0784120, SCTASK0784119</t>
+  </si>
+  <si>
+    <t>Devrim ATES</t>
+  </si>
+  <si>
+    <t>Jauram REISNER</t>
+  </si>
+  <si>
+    <t>Laura PROIETTI</t>
+  </si>
+  <si>
+    <t>Checked-Out</t>
+  </si>
+  <si>
     <t>SCTASK0887406</t>
-  </si>
-  <si>
-    <t>SCTASK0784120, SCTASK0784119</t>
-  </si>
-  <si>
-    <t>Devrim ATES</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>SCTASK0765919</t>
-  </si>
-  <si>
-    <t>MUSTBRUN2425474</t>
-  </si>
-  <si>
-    <t>Alexandra DE TORNACO</t>
-  </si>
-  <si>
-    <t>Jauram REISNER</t>
-  </si>
-  <si>
-    <t>Laura PROIETTI</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0496748_Juan Carlos DIOSES (2).pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0405052_Alexandra DE TORNACO.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0400334_Devrim ATES.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0433331_Jauram REISNER.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0420972_Laura PROIETTI.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0434588_Juan Carlos DIOSES.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0434592_Juan Carlos DIOSES.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\X1\Documents\Schuman\WORD files\RITM0434593_Juan Carlos DIOSES.pdf</t>
   </si>
 </sst>
 </file>
@@ -222,13 +189,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,24 +533,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15FE3B-AD84-45CF-9592-EB018CC38643}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="C15" sqref="A6:C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-    <col min="14" max="14" width="37.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="14" max="14" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,242 +597,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4">
+        <v>46076.395428240743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{BA17A53B-7B69-4A8F-B5D5-943D15D604FE}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{9990B10D-1867-43D9-BA0D-47C428B6CBCD}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{B28EDBB0-C6CD-4B24-8866-3540EDD5E296}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{FB54205A-D412-4308-8365-4DE8596E8937}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{8E65BFC0-3BE4-4AE2-96C6-E6348037316A}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{D84B9B70-365D-4CDB-A314-F79A3CA4E77D}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{558E05B9-F85B-4477-BA67-CA43A8BA4B47}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{CB378F21-32BD-4E04-8E7B-0FC693DA6144}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{29256316-C74C-4AFC-BC63-48D31648C643}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{640EB0F0-ABEB-493A-BBA4-5D0F43ACB350}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{6ACC607E-4E7B-43E1-8F42-187761BD74A6}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{969D087A-975C-4FED-8639-1D1644CAE54C}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{FB54205A-D412-4308-8365-4DE8596E8937}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{8E65BFC0-3BE4-4AE2-96C6-E6348037316A}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{558E05B9-F85B-4477-BA67-CA43A8BA4B47}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{969D087A-975C-4FED-8639-1D1644CAE54C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
